--- a/all_data_included&excluded.xlsx
+++ b/all_data_included&excluded.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10103"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bediou/GoogleDrive/Meta-Analysis/DATA/ANALYSIS/2021/MA_cross-sectional/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bediou/GoogleDrive/Meta-Analysis/DATA/ANALYSIS/2021/MA_cross_sectional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BD935A53-A016-4C43-9C5B-781A1C9935B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EC08B1-1367-ED40-84BD-B8F3BA1B8728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="1000" windowWidth="26960" windowHeight="15940"/>
+    <workbookView xWindow="1220" yWindow="1000" windowWidth="26960" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_data_included&amp;excluded" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17231" uniqueCount="1538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17233" uniqueCount="1538">
   <si>
     <t>Paper</t>
   </si>
@@ -4678,7 +4678,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -5544,13 +5544,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A673" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A686" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K703" sqref="K703"/>
+      <selection pane="bottomLeft" activeCell="G708" sqref="G708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -88861,8 +88861,8 @@
       <c r="F706" s="2">
         <v>110</v>
       </c>
-      <c r="H706" s="2">
-        <v>1</v>
+      <c r="H706" s="2" t="s">
+        <v>1060</v>
       </c>
       <c r="I706" s="2" t="s">
         <v>1116</v>
@@ -88981,8 +88981,8 @@
       <c r="F707" s="2">
         <v>110</v>
       </c>
-      <c r="H707" s="2">
-        <v>2</v>
+      <c r="H707" s="2" t="s">
+        <v>1060</v>
       </c>
       <c r="I707" s="2" t="s">
         <v>1116</v>
@@ -89085,6 +89085,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AP707" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP707">
     <sortCondition ref="D2:D707"/>
     <sortCondition ref="E2:E707"/>
